--- a/data/trans_dic/P32E$amigos_2023-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P32E$amigos_2023-Provincia-trans_dic.xlsx
@@ -506,7 +506,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que consumió alcohol en atracón (Binge drinking) más de una vez al mes el último año, al menos, en casa de amistades/familiares (tasa de respuesta: 100,0%)</t>
+          <t>Población que consumió alcohol en las últimas 2 semanas que, en el último año, ha consumido alcohol en exceso más de una vez al mes en una misma ocasión (Binge drinking), al menos, en casa de amistades/familiares (tasa de respuesta: 100,0%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -1070,7 +1070,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que consumió alcohol en atracón (Binge drinking) más de una vez al mes el último año, al menos, en casa de amistades/familiares (tasa de respuesta: 100,0%)</t>
+          <t>Población que consumió alcohol en las últimas 2 semanas que, en el último año, ha consumido alcohol en exceso más de una vez al mes en una misma ocasión (Binge drinking), al menos, en casa de amistades/familiares (tasa de respuesta: 100,0%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_dic/P32E$amigos_2023-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P32E$amigos_2023-Provincia-trans_dic.xlsx
@@ -641,13 +641,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.6713982837900657</v>
+        <v>0.6799846018578196</v>
       </c>
       <c r="D9" s="5" t="n">
         <v>1</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.649265299865739</v>
+        <v>0.6797486517348688</v>
       </c>
     </row>
     <row r="10">
@@ -668,7 +668,7 @@
         <v>0</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>0.1485317250869957</v>
+        <v>0.1485317250869956</v>
       </c>
     </row>
     <row r="11">
@@ -679,11 +679,11 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.04628736940279229</v>
+        <v>0.04120597246446431</v>
       </c>
       <c r="D11" s="5" t="inlineStr"/>
       <c r="E11" s="5" t="n">
-        <v>0.04515390398804299</v>
+        <v>0.04458832831047747</v>
       </c>
     </row>
     <row r="12">
@@ -694,11 +694,11 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.4017820777653665</v>
+        <v>0.37422578486256</v>
       </c>
       <c r="D12" s="5" t="inlineStr"/>
       <c r="E12" s="5" t="n">
-        <v>0.3999923041768922</v>
+        <v>0.3661494199259555</v>
       </c>
     </row>
     <row r="13">
@@ -713,13 +713,13 @@
         </is>
       </c>
       <c r="C13" s="5" t="n">
-        <v>0.5749104275699841</v>
+        <v>0.5749104275699842</v>
       </c>
       <c r="D13" s="5" t="n">
-        <v>0.220743589679554</v>
+        <v>0.2207435896795541</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.3998487573587775</v>
+        <v>0.3998487573587774</v>
       </c>
     </row>
     <row r="14">
@@ -736,7 +736,7 @@
         <v>0</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.1189918079483549</v>
+        <v>0.1408566994288422</v>
       </c>
     </row>
     <row r="15">
@@ -747,13 +747,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.8904242966437177</v>
+        <v>0.9036881537872894</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.6619328926467483</v>
+        <v>0.6519439995061687</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.7099443634501815</v>
+        <v>0.7000153583217541</v>
       </c>
     </row>
     <row r="16">
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="C19" s="5" t="n">
-        <v>0.2261236925393964</v>
+        <v>0.2261236925393963</v>
       </c>
       <c r="D19" s="5" t="n">
         <v>0.2770001268592128</v>
@@ -828,13 +828,13 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.08194920131008453</v>
+        <v>0.08959215408654328</v>
       </c>
       <c r="D20" s="5" t="n">
         <v>0</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.1068948038928805</v>
+        <v>0.118543505342335</v>
       </c>
     </row>
     <row r="21">
@@ -845,13 +845,13 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.4162948837922804</v>
+        <v>0.4388919662174655</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.6518956882044744</v>
+        <v>0.6691556789079589</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.3965503792127789</v>
+        <v>0.3972498302927217</v>
       </c>
     </row>
     <row r="22">
@@ -872,7 +872,7 @@
         <v>0.2912548992471092</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.2719363437652982</v>
+        <v>0.2719363437652983</v>
       </c>
     </row>
     <row r="23">
@@ -883,13 +883,13 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.131881866090197</v>
+        <v>0.1287788663445837</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.08458200530321784</v>
+        <v>0.0871565760330151</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.1612637305757255</v>
+        <v>0.1612960056648843</v>
       </c>
     </row>
     <row r="24">
@@ -900,13 +900,13 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.4491726643949484</v>
+        <v>0.4659277324102259</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.60690806701113</v>
+        <v>0.5728385766630705</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.4280146476945833</v>
+        <v>0.4404651966229733</v>
       </c>
     </row>
     <row r="25">
@@ -921,7 +921,7 @@
         </is>
       </c>
       <c r="C25" s="5" t="n">
-        <v>0.1954432353235169</v>
+        <v>0.1954432353235168</v>
       </c>
       <c r="D25" s="5" t="n">
         <v>0.1855409298673897</v>
@@ -938,13 +938,13 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.09443038785528382</v>
+        <v>0.09199404656060362</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.04511478532449803</v>
+        <v>0.04234993104526326</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.09638313123218133</v>
+        <v>0.1016096672495581</v>
       </c>
     </row>
     <row r="27">
@@ -955,13 +955,13 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.3513799516974839</v>
+        <v>0.3704302826259785</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.4147624971248302</v>
+        <v>0.4387669974941621</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.3121142708892752</v>
+        <v>0.3210113648346791</v>
       </c>
     </row>
     <row r="28">
@@ -982,7 +982,7 @@
         <v>0.2302954889663085</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>0.2345426558365788</v>
+        <v>0.2345426558365789</v>
       </c>
     </row>
     <row r="29">
@@ -993,13 +993,13 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>0.1575765604777465</v>
+        <v>0.1653606973644928</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>0.1339826548733907</v>
+        <v>0.12863137435468</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>0.1698232694609911</v>
+        <v>0.1727863487355024</v>
       </c>
     </row>
     <row r="30">
@@ -1010,13 +1010,13 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>0.3338082151575512</v>
+        <v>0.3383738396584019</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>0.3657872226734415</v>
+        <v>0.3710113888716917</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>0.3103814188188403</v>
+        <v>0.3094078430650751</v>
       </c>
     </row>
     <row r="31">
@@ -1239,13 +1239,13 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>6709</v>
+        <v>6795</v>
       </c>
       <c r="D11" s="6" t="n">
         <v>1804</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>7659</v>
+        <v>8019</v>
       </c>
     </row>
     <row r="12">
@@ -1294,11 +1294,11 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>751</v>
+        <v>669</v>
       </c>
       <c r="D14" s="6" t="inlineStr"/>
       <c r="E14" s="6" t="n">
-        <v>776</v>
+        <v>766</v>
       </c>
     </row>
     <row r="15">
@@ -1309,11 +1309,11 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>6523</v>
+        <v>6076</v>
       </c>
       <c r="D15" s="6" t="inlineStr"/>
       <c r="E15" s="6" t="n">
-        <v>6871</v>
+        <v>6290</v>
       </c>
     </row>
     <row r="16">
@@ -1368,7 +1368,7 @@
         <v>0</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>2787</v>
+        <v>3299</v>
       </c>
     </row>
     <row r="19">
@@ -1379,13 +1379,13 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>10547</v>
+        <v>10704</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>7664</v>
+        <v>7548</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>16629</v>
+        <v>16396</v>
       </c>
     </row>
     <row r="20">
@@ -1494,13 +1494,13 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>2236</v>
+        <v>2445</v>
       </c>
       <c r="D26" s="6" t="n">
         <v>0</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>3680</v>
+        <v>4081</v>
       </c>
     </row>
     <row r="27">
@@ -1511,13 +1511,13 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>11360</v>
+        <v>11976</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>4653</v>
+        <v>4776</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>13651</v>
+        <v>13675</v>
       </c>
     </row>
     <row r="28">
@@ -1566,13 +1566,13 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>5791</v>
+        <v>5655</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>1662</v>
+        <v>1712</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>10250</v>
+        <v>10252</v>
       </c>
     </row>
     <row r="31">
@@ -1583,13 +1583,13 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>19725</v>
+        <v>20460</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>11924</v>
+        <v>11255</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>27205</v>
+        <v>27996</v>
       </c>
     </row>
     <row r="32">
@@ -1638,13 +1638,13 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>4416</v>
+        <v>4302</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>833</v>
+        <v>782</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>6288</v>
+        <v>6629</v>
       </c>
     </row>
     <row r="35">
@@ -1655,13 +1655,13 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>16432</v>
+        <v>17323</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>7662</v>
+        <v>8105</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>20361</v>
+        <v>20941</v>
       </c>
     </row>
     <row r="36">
@@ -1710,13 +1710,13 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>25446</v>
+        <v>26703</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>8600</v>
+        <v>8256</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>38324</v>
+        <v>38992</v>
       </c>
     </row>
     <row r="39">
@@ -1727,13 +1727,13 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>53904</v>
+        <v>54641</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>23478</v>
+        <v>23814</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>70043</v>
+        <v>69823</v>
       </c>
     </row>
     <row r="40">
